--- a/AutoInterface/TestFile/interface_data.xlsx
+++ b/AutoInterface/TestFile/interface_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>post</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
 </sst>
 </file>
@@ -70,11 +73,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +87,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -98,7 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,9 +201,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,120 +229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +430,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,24 +468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +498,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,174 +522,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1002,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1054,7 +1050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1069,6 +1065,9 @@
       </c>
       <c r="E2" t="s">
         <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/AutoInterface/TestFile/interface_data.xlsx
+++ b/AutoInterface/TestFile/interface_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,23 +100,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -124,15 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,33 +140,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,15 +154,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,22 +187,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +200,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,13 +245,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,37 +389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,121 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,30 +430,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,41 +444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,16 +471,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>

--- a/AutoInterface/TestFile/interface_data.xlsx
+++ b/AutoInterface/TestFile/interface_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="29040" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,23 +94,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,7 +116,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,22 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -216,8 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +201,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,25 +239,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,157 +365,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +430,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,39 +462,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,16 +515,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,16 +548,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,115 +566,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,13 +999,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
@@ -1070,6 +1070,36 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
